--- a/Project/TestDate.xlsx
+++ b/Project/TestDate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>RunMode</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>VerifyCart</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -384,7 +387,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,7 +416,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -429,7 +432,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
